--- a/MOORA.xlsx
+++ b/MOORA.xlsx
@@ -127,7 +127,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6DF89"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,18 +351,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -585,8 +585,8 @@
   </sheetPr>
   <dimension ref="A2:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1265,7 +1265,7 @@
       <c r="A51" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="32">
         <f>SUM($E44,$C44)-$B44-$D44</f>
         <v>-4.2787859385132909E-2</v>
       </c>
@@ -1293,7 +1293,7 @@
     <mergeCell ref="A48:B48"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
